--- a/data/regression/results/xgboost_importance.xlsx
+++ b/data/regression/results/xgboost_importance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,803 +452,803 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09837497025728226</v>
+        <v>0.07975634187459946</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dayoftheweek</t>
+          <t>otrofactor</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08679022639989853</v>
+        <v>0.04614711552858353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>otrofactor</t>
+          <t>dayoftheweek</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06075034290552139</v>
+        <v>0.0380093976855278</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bienestar</t>
+          <t>smoke</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03002100437879562</v>
+        <v>0.02884054370224476</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Houroff_hour</t>
+          <t>Totaltime</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02794644422829151</v>
+        <v>0.02122236788272858</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Houron_minute</t>
+          <t>bienestar</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02706687152385712</v>
+        <v>0.02104318328201771</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>covid_work</t>
+          <t>district_sant andreu</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0269311610609293</v>
+        <v>0.02020229957997799</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>covid_motor</t>
+          <t>district_horta-guinardo</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02676901780068874</v>
+        <v>0.02007291465997696</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Totaltime</t>
+          <t>district_gràcia</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02478380873799324</v>
+        <v>0.02001228369772434</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>district_eixample</t>
+          <t>psycho</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02463458478450775</v>
+        <v>0.01927218958735466</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>district_gràcia</t>
+          <t>covid_sleep</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02311904355883598</v>
+        <v>0.01891809329390526</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>district_sant andreu</t>
+          <t>covid_mood</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02134848572313786</v>
+        <v>0.01568860374391079</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>district_ciutat vella</t>
+          <t>education</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02118533849716187</v>
+        <v>0.01565391756594181</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>no2bcn_12h</t>
+          <t>covid_motor</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01849871687591076</v>
+        <v>0.01564226485788822</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>incidence_cat_physical incidence</t>
+          <t>sec_noise55_day</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01809949614107609</v>
+        <v>0.01520910207182169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>z_inhib_control</t>
+          <t>no2bcn_12h_x30</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01798330806195736</v>
+        <v>0.01479960512369871</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCμg</t>
+          <t>covid_work</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01722308062016964</v>
+        <v>0.01401639357209206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mean_congruent</t>
+          <t>no2gps_24h_x30</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.015797458589077</v>
+        <v>0.01381599809974432</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dieta</t>
+          <t>incidence_cat_physical incidence</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01538096647709608</v>
+        <v>0.01324252597987652</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>actividadfisica</t>
+          <t>µgm3</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01508033834397793</v>
+        <v>0.0131851090118289</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>inhib_control</t>
+          <t>covid_public_trans</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01476686913520098</v>
+        <v>0.01306165941059589</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>covid_aire</t>
+          <t>no2gps_12h_x30</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01458889059722424</v>
+        <v>0.01303069200366735</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>µgm3</t>
+          <t>covid_espacios</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01446872390806675</v>
+        <v>0.0128366369754076</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>z_mean_incongruent</t>
+          <t>district_eixample</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01429165713489056</v>
+        <v>0.01246596872806549</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>access_greenbluespaces_300mbuff</t>
+          <t>z_performance</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01272457186132669</v>
+        <v>0.01241144444793463</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>humi_24h</t>
+          <t>no2gps_24h</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01261755544692278</v>
+        <v>0.01239939127117395</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sec_greenblue_day</t>
+          <t>pm25bcn</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01224464736878872</v>
+        <v>0.01214222796261311</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sec_noise65_day</t>
+          <t>tmean_24h</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01215861178934574</v>
+        <v>0.01184855774044991</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>occurrence_mental</t>
+          <t>incidence_cat_mobility incidence</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01199638471007347</v>
+        <v>0.01149945147335529</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>pm25bcn</t>
+          <t>age_yrs</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0117145162075758</v>
+        <v>0.01149733085185289</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>tmean_12h</t>
+          <t>no2bcn_12h</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01119254995137453</v>
+        <v>0.01124041341245174</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>covid_mood</t>
+          <t>BCμg</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01113908458501101</v>
+        <v>0.01119039207696915</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>no2bcn_24h</t>
+          <t>sec_noise65_day</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01087001338601112</v>
+        <v>0.0110995089635253</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>z_performance</t>
+          <t>no2bcn_24h</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01081583369523287</v>
+        <v>0.01052887365221977</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>no2gps_24h</t>
+          <t>pressure_24h</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0107757356017828</v>
+        <v>0.01051621790975332</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>district_sarria sant-gervasi</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01062670815736055</v>
+        <v>0.01048692874610424</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>energia</t>
+          <t>tmean_12h</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01051782164722681</v>
+        <v>0.01035510096698999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>age_yrs</t>
+          <t>district_16</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01034971419721842</v>
+        <v>0.01033688895404339</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Houron_hour</t>
+          <t>response_duration_ms</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01026954501867294</v>
+        <v>0.01029238291084766</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>humi_12h</t>
+          <t>access_greenbluespaces_300mbuff</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01009808108210564</v>
+        <v>0.01008733455091715</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>z_mean_incongruent</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01002184115350246</v>
+        <v>0.01001104991883039</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>covid_sleep</t>
+          <t>humi_24h</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.009399672970175743</v>
+        <v>0.009902814403176308</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>pressure_12h</t>
+          <t>covid_bikewalk</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.009335853159427643</v>
+        <v>0.009819730184972286</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>pressure_24h</t>
+          <t>mean_congruent</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.008945967070758343</v>
+        <v>0.009804514236748219</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>horasfuera</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.008591149933636189</v>
+        <v>0.009495488367974758</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>enfermo</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.00856734998524189</v>
+        <v>0.009430164471268654</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>no2gps_12h</t>
+          <t>covid_electric</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.008391331881284714</v>
+        <v>0.009367438033223152</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>min_gps</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.007812924683094025</v>
+        <v>0.009064354002475739</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>tmean_24h</t>
+          <t>pressure_12h</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.00774204358458519</v>
+        <v>0.009009472094476223</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>smoke</t>
+          <t>sueno</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.007580326870083809</v>
+        <v>0.008782161399722099</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>sec_noise55_day</t>
+          <t>no2bcn_24h_x30</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.00714279105886817</v>
+        <v>0.008705615997314453</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>occurrence_stroop</t>
+          <t>district_ciutat vella</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.006641450803726912</v>
+        <v>0.008550705388188362</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>covid_public_trans</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.006345407105982304</v>
+        <v>0.008544763550162315</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>psycho</t>
+          <t>humi_12h</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.006081788334995508</v>
+        <v>0.008449544198811054</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>hour</t>
+          <t>occurrence_stroop</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.005970473401248455</v>
+        <v>0.008277366869151592</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>covid_electric</t>
+          <t>inhib_control</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.005936899688094854</v>
+        <v>0.007967563346028328</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ID_Zenodo</t>
+          <t>no2gps_12h</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.005164335016161203</v>
+        <v>0.007852820679545403</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>mean_incongruent</t>
+          <t>Totaltime_estimated</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.005125771276652813</v>
+        <v>0.007821216247975826</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>enfermo</t>
+          <t>min_gps</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.004336340352892876</v>
+        <v>0.007812298368662596</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Houroff_minute</t>
+          <t>sec_greenblue_day</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.003821110352873802</v>
+        <v>0.007641976699233055</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>bebida</t>
+          <t>horasfuera</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.001033042557537556</v>
+        <v>0.007601860444992781</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>sueno</t>
+          <t>district_nou barris</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>0.007510288152843714</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>mentalhealth_survey</t>
+          <t>actividadfisica</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>0.007504046894609928</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>drogas</t>
+          <t>incidence_cat_physical and mobility incidences</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>0.007474171929061413</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>alcohol</t>
+          <t>bebida</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>0.007358947768807411</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>no2bcn_12h_x30</t>
+          <t>district_sant martí</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>0.007328867446631193</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>response_duration_ms</t>
+          <t>covid_aire</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>0.007307732477784157</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>correct</t>
+          <t>incidence_cat_no incidence</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>0.007302186451852322</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>maxwindspeed_12h</t>
+          <t>dieta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>0.007123497780412436</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>precip_12h</t>
+          <t>z_inhib_control</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>0.006947109941393137</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>precip_12h_binary</t>
+          <t>hours_noise_55_day</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>0.006731350440531969</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>precip_24h_binary</t>
+          <t>mean_incongruent</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>0.006727208849042654</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>maxwindspeed_24h</t>
+          <t>district_sants-montjuïc</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>0.00633247010409832</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>precip_24h</t>
+          <t>drogas</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>0.005954552441835403</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>no2bcn_24h_x30</t>
+          <t>alcohol</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>0.005909721367061138</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>no2gps_12h_x30</t>
+          <t>ID_Zenodo</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>0.005777481943368912</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>no2gps_24h_x30</t>
+          <t>hour_gps</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>0.005610326770693064</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>hour_gps</t>
+          <t>hours_noise_65_day</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>0.005327031016349792</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>hours_noise_55_day</t>
+          <t>occurrence_mental</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>0.004925200249999762</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>hours_noise_65_day</t>
+          <t>mentalhealth_survey</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>0.002857346786186099</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>hours_greenblue_day</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>yearbirth</t>
+          <t>hours_greenblue_day</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Totaltime_estimated</t>
+          <t>noise_total_LDEN_55</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>noise_total_LDEN_55</t>
+          <t>maxwindspeed_12h</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>maxwindspeed_24h</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>covid_bikewalk</t>
+          <t>precip_24h_binary</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>covid_espacios</t>
+          <t>precip_12h</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>district_16</t>
+          <t>precip_12h_binary</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>district_horta-guinardo</t>
+          <t>precip_24h</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,80 +1338,10 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>district_nou barris</t>
+          <t>district_les corts</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>district_les corts</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>district_sants-montjuïc</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>district_sant martí</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>district_sarria sant-gervasi</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>incidence_cat_mobility incidence</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>incidence_cat_no incidence</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>incidence_cat_physical and mobility incidences</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/regression/results/xgboost_importance.xlsx
+++ b/data/regression/results/xgboost_importance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07975634187459946</v>
+        <v>0.07105930149555206</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04614711552858353</v>
+        <v>0.05349824950098991</v>
       </c>
     </row>
     <row r="4">
@@ -472,37 +472,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0380093976855278</v>
+        <v>0.03264021500945091</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>smoke</t>
+          <t>district_gràcia</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02884054370224476</v>
+        <v>0.02400106936693192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Totaltime</t>
+          <t>incidence_cat_physical incidence</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02122236788272858</v>
+        <v>0.02256172336637974</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bienestar</t>
+          <t>smoke</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02104318328201771</v>
+        <v>0.01986109651625156</v>
       </c>
     </row>
     <row r="8">
@@ -512,97 +512,97 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02020229957997799</v>
+        <v>0.01970452256500721</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>district_horta-guinardo</t>
+          <t>bienestar</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02007291465997696</v>
+        <v>0.01965233683586121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>district_gràcia</t>
+          <t>Totaltime</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02001228369772434</v>
+        <v>0.01875957660377026</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>psycho</t>
+          <t>district_eixample</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01927218958735466</v>
+        <v>0.0180096086114645</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>covid_sleep</t>
+          <t>district_horta-guinardo</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01891809329390526</v>
+        <v>0.01708581671118736</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>covid_mood</t>
+          <t>psycho</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01568860374391079</v>
+        <v>0.01687510311603546</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>covid_mood</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01565391756594181</v>
+        <v>0.01682840846478939</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>covid_motor</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01564226485788822</v>
+        <v>0.01668833382427692</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sec_noise55_day</t>
+          <t>covid_espacios</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01520910207182169</v>
+        <v>0.01646645739674568</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>no2bcn_12h_x30</t>
+          <t>µgm3</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01479960512369871</v>
+        <v>0.01616471447050571</v>
       </c>
     </row>
     <row r="18">
@@ -612,407 +612,407 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01401639357209206</v>
+        <v>0.0156868789345026</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>no2gps_24h_x30</t>
+          <t>covid_motor</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01381599809974432</v>
+        <v>0.01554854121059179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>incidence_cat_physical incidence</t>
+          <t>education</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01324252597987652</v>
+        <v>0.01466393284499645</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>µgm3</t>
+          <t>covid_sleep</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0131851090118289</v>
+        <v>0.01440951135009527</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>covid_public_trans</t>
+          <t>sec_noise55_day</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01306165941059589</v>
+        <v>0.01429165061563253</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>no2gps_12h_x30</t>
+          <t>pressure_24h</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01303069200366735</v>
+        <v>0.01332317013293505</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>covid_espacios</t>
+          <t>access_greenbluespaces_300mbuff</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0128366369754076</v>
+        <v>0.01312084030359983</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>district_eixample</t>
+          <t>pressure_12h</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01246596872806549</v>
+        <v>0.01311879605054855</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>z_performance</t>
+          <t>sec_noise65_day</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01241144444793463</v>
+        <v>0.01297792419791222</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>no2gps_24h</t>
+          <t>district_sants-montjuïc</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01239939127117395</v>
+        <v>0.01245987135916948</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>pm25bcn</t>
+          <t>age_yrs</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01214222796261311</v>
+        <v>0.01237632799893618</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>tmean_24h</t>
+          <t>district_nou barris</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01184855774044991</v>
+        <v>0.01231087278574705</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>incidence_cat_mobility incidence</t>
+          <t>covid_aire</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01149945147335529</v>
+        <v>0.01229104865342379</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>age_yrs</t>
+          <t>humi_12h</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01149733085185289</v>
+        <v>0.01225833408534527</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>no2bcn_12h</t>
+          <t>z_inhib_control</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01124041341245174</v>
+        <v>0.01214122027158737</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCμg</t>
+          <t>covid_electric</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01119039207696915</v>
+        <v>0.0121152438223362</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sec_noise65_day</t>
+          <t>no2gps_24h</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0110995089635253</v>
+        <v>0.01172512862831354</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>no2bcn_24h</t>
+          <t>covid_public_trans</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01052887365221977</v>
+        <v>0.01165783498436213</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>pressure_24h</t>
+          <t>mean_congruent</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01051621790975332</v>
+        <v>0.01155176572501659</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>district_sarria sant-gervasi</t>
+          <t>district_16</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01048692874610424</v>
+        <v>0.01137884519994259</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>tmean_12h</t>
+          <t>humi_24h</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01035510096698999</v>
+        <v>0.01125852856785059</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>district_16</t>
+          <t>z_performance</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01033688895404339</v>
+        <v>0.01112527959048748</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>response_duration_ms</t>
+          <t>tmean_12h</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01029238291084766</v>
+        <v>0.01112140715122223</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>access_greenbluespaces_300mbuff</t>
+          <t>incidence_cat_physical and mobility incidences</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01008733455091715</v>
+        <v>0.01089775655418634</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>z_mean_incongruent</t>
+          <t>pm25bcn</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01001104991883039</v>
+        <v>0.01081993523985147</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>humi_24h</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.009902814403176308</v>
+        <v>0.01076890155673027</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>covid_bikewalk</t>
+          <t>occurrence_stroop</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.009819730184972286</v>
+        <v>0.0105768833309412</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>mean_congruent</t>
+          <t>district_sarria sant-gervasi</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.009804514236748219</v>
+        <v>0.01049549225717783</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>incidence_cat_no incidence</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.009495488367974758</v>
+        <v>0.01049317326396704</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>enfermo</t>
+          <t>no2bcn_24h</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.009430164471268654</v>
+        <v>0.01041881460696459</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>covid_electric</t>
+          <t>z_mean_incongruent</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.009367438033223152</v>
+        <v>0.0103955427184701</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>incidence_cat_mobility incidence</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.009064354002475739</v>
+        <v>0.01034809276461601</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>pressure_12h</t>
+          <t>tmean_24h</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.009009472094476223</v>
+        <v>0.01017281878739595</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>sueno</t>
+          <t>actividadfisica</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.008782161399722099</v>
+        <v>0.01007995288819075</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>no2bcn_24h_x30</t>
+          <t>min_gps</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.008705615997314453</v>
+        <v>0.01000451762229204</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>district_ciutat vella</t>
+          <t>enfermo</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.008550705388188362</v>
+        <v>0.009935760870575905</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>energia</t>
+          <t>covid_bikewalk</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.008544763550162315</v>
+        <v>0.00985452625900507</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>humi_12h</t>
+          <t>sec_greenblue_day</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.008449544198811054</v>
+        <v>0.009676580317318439</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>occurrence_stroop</t>
+          <t>horasfuera</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.008277366869151592</v>
+        <v>0.009633278474211693</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>inhib_control</t>
+          <t>response_duration_ms</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.007967563346028328</v>
+        <v>0.009531211107969284</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>no2gps_12h</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.007852820679545403</v>
+        <v>0.009499468840658665</v>
       </c>
     </row>
     <row r="59">
@@ -1022,233 +1022,233 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.007821216247975826</v>
+        <v>0.009367530234158039</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>min_gps</t>
+          <t>inhib_control</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.007812298368662596</v>
+        <v>0.009358014911413193</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sec_greenblue_day</t>
+          <t>district_sant martí</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.007641976699233055</v>
+        <v>0.008864457719027996</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>horasfuera</t>
+          <t>BCμg</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.007601860444992781</v>
+        <v>0.00879682507365942</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>district_nou barris</t>
+          <t>hours_noise_55_day</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.007510288152843714</v>
+        <v>0.008693955838680267</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>actividadfisica</t>
+          <t>dieta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.007504046894609928</v>
+        <v>0.008366360329091549</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>incidence_cat_physical and mobility incidences</t>
+          <t>district_ciutat vella</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.007474171929061413</v>
+        <v>0.008348290808498859</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>bebida</t>
+          <t>hour_gps</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.007358947768807411</v>
+        <v>0.008069274015724659</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>district_sant martí</t>
+          <t>sueno</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.007328867446631193</v>
+        <v>0.007952457293868065</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>covid_aire</t>
+          <t>mean_incongruent</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.007307732477784157</v>
+        <v>0.007803080137819052</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>incidence_cat_no incidence</t>
+          <t>alcohol</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.007302186451852322</v>
+        <v>0.007279017940163612</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>dieta</t>
+          <t>occurrence_mental</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.007123497780412436</v>
+        <v>0.006863784976303577</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>z_inhib_control</t>
+          <t>bebida</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.006947109941393137</v>
+        <v>0.006271663587540388</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>hours_noise_55_day</t>
+          <t>hours_noise_65_day</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.006731350440531969</v>
+        <v>0.006177907343953848</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>mean_incongruent</t>
+          <t>ID_Zenodo</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.006727208849042654</v>
+        <v>0.00524191465228796</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>district_sants-montjuïc</t>
+          <t>drogas</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.00633247010409832</v>
+        <v>0.005230727139860392</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>drogas</t>
+          <t>mentalhealth_survey</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.005954552441835403</v>
+        <v>0.0009425231255590916</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>alcohol</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.005909721367061138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ID_Zenodo</t>
+          <t>hours_greenblue_day</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.005777481943368912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>hour_gps</t>
+          <t>noise_total_LDEN_55</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.005610326770693064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>hours_noise_65_day</t>
+          <t>maxwindspeed_12h</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.005327031016349792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>occurrence_mental</t>
+          <t>maxwindspeed_24h</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.004925200249999762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>mentalhealth_survey</t>
+          <t>precip_24h_binary</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.002857346786186099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>correct</t>
+          <t>precip_12h</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>hours_greenblue_day</t>
+          <t>precip_12h_binary</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>noise_total_LDEN_55</t>
+          <t>precip_24h</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,70 +1278,10 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>maxwindspeed_12h</t>
+          <t>district_les corts</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>maxwindspeed_24h</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>precip_24h_binary</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>precip_12h</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>precip_12h_binary</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>precip_24h</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>district_les corts</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
         <v>0</v>
       </c>
     </row>
